--- a/data/trans_camb/P40_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P40_R2-Estudios-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>1.068936438107287</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>9.577300336553657</v>
+        <v>9.577300336553646</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>1.567579995390816</v>
@@ -664,7 +664,7 @@
         <v>1.377833581663457</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>9.110006152126127</v>
+        <v>9.110006152126115</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.222151619603143</v>
+        <v>-2.143430188584607</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.612238339671309</v>
+        <v>-2.892397856571071</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.421602525482091</v>
+        <v>2.380026029979132</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.170083288332449</v>
+        <v>-3.0831213298855</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.168973900508</v>
+        <v>-2.865752228164572</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>5.57065246851308</v>
+        <v>5.784522190013242</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.564434589250572</v>
+        <v>-1.209565110381063</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.953677188398709</v>
+        <v>-1.853266660834099</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>5.743004715023576</v>
+        <v>5.75374386289641</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.224893013346799</v>
+        <v>6.388719336847955</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.764108048136594</v>
+        <v>6.10525552045503</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12.05579655624545</v>
+        <v>12.05814949177531</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.361579592266311</v>
+        <v>4.267370616376106</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.394711857696844</v>
+        <v>5.70577618521955</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>13.34323484623818</v>
+        <v>13.32294857205556</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.37695942079898</v>
+        <v>4.852307774839061</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>4.688732205777342</v>
+        <v>4.530631116082087</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>12.07679940089629</v>
+        <v>12.02523953806447</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.02281779941265189</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2044395814414842</v>
+        <v>0.2044395814414839</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.03906411769482151</v>
@@ -769,7 +769,7 @@
         <v>0.03433563413429488</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.2270214940057839</v>
+        <v>0.2270214940057836</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.06814948792090735</v>
+        <v>-0.06268209031613962</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.07869628315291873</v>
+        <v>-0.08495454729678277</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.07475735601862028</v>
+        <v>0.07488396459820687</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.06486850670035126</v>
+        <v>-0.06278663981733271</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.06638758828200803</v>
+        <v>-0.05999401670784872</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1146976283432077</v>
+        <v>0.119874934816124</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.03786688670187947</v>
+        <v>-0.02897403226920225</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.04499404228786391</v>
+        <v>-0.04493208350074128</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.1393547270901215</v>
+        <v>0.1388401853702328</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.208908846316947</v>
+        <v>0.2160003395753496</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1990224246617127</v>
+        <v>0.2084394369680924</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.4143673457416359</v>
+        <v>0.4056295104425372</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.09643917918619706</v>
+        <v>0.09475867801912408</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1179973185795866</v>
+        <v>0.1259690982822119</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3001295119208735</v>
+        <v>0.2978873356442279</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1110693934651739</v>
+        <v>0.1270114238176258</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1210695155575146</v>
+        <v>0.1174735769275808</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.3127419328760219</v>
+        <v>0.3103849361060879</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>0.1870747236753373</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>3.423923057220676</v>
+        <v>3.423923057220674</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.05966176929330103</v>
@@ -878,7 +878,7 @@
         <v>1.748764532323466</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>5.176126255945124</v>
+        <v>5.176126255945126</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.3459050303656551</v>
+        <v>-0.2346070207214518</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.230315237142188</v>
+        <v>1.294603803122634</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.589615377636429</v>
+        <v>4.739111011495101</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.453705240511109</v>
+        <v>-4.257604598280874</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.556028919938486</v>
+        <v>-2.333428279527949</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.9677788786324313</v>
+        <v>0.8763911537104954</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.499837506856852</v>
+        <v>-1.644192425307102</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.02127314832766495</v>
+        <v>0.2200880342952423</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.40444660541416</v>
+        <v>3.586371894034868</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.821916155924916</v>
+        <v>3.779604199119591</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.27638977544555</v>
+        <v>5.131550144058522</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.858134592840331</v>
+        <v>8.767203153063388</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.044017782774351</v>
+        <v>1.134126059382376</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.837567041862923</v>
+        <v>2.764226878367055</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.171008716205238</v>
+        <v>5.950162084768439</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.664403600279199</v>
+        <v>1.561862243692218</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.369721133050526</v>
+        <v>3.4242032343959</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>6.736788660121233</v>
+        <v>6.759132763220286</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.01060808875561894</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.194153859857848</v>
+        <v>0.1941538598578479</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.004564325750196976</v>
@@ -983,7 +983,7 @@
         <v>0.1337863606872852</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.3959910447867613</v>
+        <v>0.3959910447867616</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.03758020754491544</v>
+        <v>-0.02028809907558744</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1233117416585944</v>
+        <v>0.1348442559153174</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.4451104088889878</v>
+        <v>0.4897737939006421</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2292851097831543</v>
+        <v>-0.2206383834172145</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1311044600011871</v>
+        <v>-0.1229231784027421</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0516832692316108</v>
+        <v>0.04576416128254081</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1089847190402447</v>
+        <v>-0.1184026386229165</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.001771651920264352</v>
+        <v>0.01750330056757093</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2446305582796513</v>
+        <v>0.2484952636661925</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.4741245008550645</v>
+        <v>0.4799881762289958</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.6784432008482139</v>
+        <v>0.6634282134289174</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.147741572532762</v>
+        <v>1.157216654734119</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.06337349137440404</v>
+        <v>0.07578274590746067</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1732012598888602</v>
+        <v>0.1703510109905931</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3845967574065952</v>
+        <v>0.3708873681695248</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.13789720519999</v>
+        <v>0.1285751214036631</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2726774907810933</v>
+        <v>0.2903885779729688</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.5561607898058565</v>
+        <v>0.5505211719653172</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-0.5327615774017663</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3.346964108936402</v>
+        <v>3.346964108936401</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-5.295079702098803</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.63536943997951</v>
+        <v>-4.752235458979863</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.32717885963551</v>
+        <v>-4.024499814194084</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.0237393443287338</v>
+        <v>-0.3944048439851789</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-9.733719745797481</v>
+        <v>-9.639954271932421</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-8.544260377819782</v>
+        <v>-8.218677377147806</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.937002881475841</v>
+        <v>-4.199051259521025</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-5.687457859231781</v>
+        <v>-5.677186364384801</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-4.903646803276212</v>
+        <v>-4.852716687938766</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.7273003248634603</v>
+        <v>-1.045559642591494</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.044133299020131</v>
+        <v>3.283735606327285</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.308019167578687</v>
+        <v>2.94811637691334</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.235862622460516</v>
+        <v>7.161590937256536</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-1.304825798988863</v>
+        <v>-1.26692080677822</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-0.01510976013847673</v>
+        <v>0.7526553548492145</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.894273062971079</v>
+        <v>3.935558264434539</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-0.1157790999269866</v>
+        <v>0.24860068773009</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6999074182054045</v>
+        <v>0.8456014918816925</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.2447603534718</v>
+        <v>4.275620741455664</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.06022437230580403</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.3783471277598204</v>
+        <v>0.3783471277598203</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.3728208609778458</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4505436416342133</v>
+        <v>-0.4496627324937855</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3922154270909675</v>
+        <v>-0.3908190237517755</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.007511407024944499</v>
+        <v>-0.03767240576706041</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5830862814341711</v>
+        <v>-0.5906027719410343</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5035620411389422</v>
+        <v>-0.4909285407467589</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2356473186085549</v>
+        <v>-0.2504708159070734</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.449733807400379</v>
+        <v>-0.4501700501776887</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3775729958517943</v>
+        <v>-0.3708191555649846</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.06020066018936208</v>
+        <v>-0.07801657886063748</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.4559013079170983</v>
+        <v>0.4623961996673687</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4795924351594702</v>
+        <v>0.4538630293680679</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.041796356040174</v>
+        <v>1.045014325668432</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.08095603503084579</v>
+        <v>-0.09875000982698823</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.001658533083115019</v>
+        <v>0.06439388141804969</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3505637755985224</v>
+        <v>0.3363422964646259</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.009485601528655685</v>
+        <v>0.02549613270074068</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.08280739741257537</v>
+        <v>0.09992552146646502</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.4196861394280693</v>
+        <v>0.429384101417658</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>0.06997435115893291</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2.734027894744909</v>
+        <v>2.734027894744914</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-1.582013980597191</v>
@@ -1297,7 +1297,7 @@
         <v>-3.344561278663743</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-1.006088003011452</v>
+        <v>-1.006088003011446</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-0.3184621577244168</v>
@@ -1306,7 +1306,7 @@
         <v>-1.638969503067753</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.8922410896352789</v>
+        <v>0.8922410896352845</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.9772811212234276</v>
+        <v>-0.920627675686723</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.552943123295452</v>
+        <v>-1.715504231945856</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9412873282597803</v>
+        <v>0.7968496364506863</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.908338297196443</v>
+        <v>-3.79275389787813</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-5.435118894940522</v>
+        <v>-5.592901624707645</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-3.093644501220859</v>
+        <v>-3.17166254736434</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.810612966572864</v>
+        <v>-1.83243164204266</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-3.209109684430946</v>
+        <v>-2.999352584353946</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.4680313600517149</v>
+        <v>-0.6277580611693119</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.775398089381262</v>
+        <v>2.726224651704787</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.018261672531593</v>
+        <v>1.845064445141622</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.65964370736049</v>
+        <v>4.547455701960729</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4909885829699528</v>
+        <v>0.5364647208020353</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-1.126340248201575</v>
+        <v>-0.9265159506714773</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.9709841833564545</v>
+        <v>0.9195646522507591</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.116600027313718</v>
+        <v>1.109180842739654</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.1577265639809022</v>
+        <v>-0.2811953690972828</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.178816592248559</v>
+        <v>2.153797146031417</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.004381471791972275</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.1711922425987499</v>
+        <v>0.1711922425987503</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.05548979943155682</v>
@@ -1402,7 +1402,7 @@
         <v>-0.1173118801829708</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.03528895583876366</v>
+        <v>-0.03528895583876347</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.01425652157963821</v>
@@ -1411,7 +1411,7 @@
         <v>-0.07337136774999259</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.03994274999427974</v>
+        <v>0.03994274999427999</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.054805745322595</v>
+        <v>-0.05408421952154495</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.0928150570950122</v>
+        <v>-0.1023856613661939</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.05420261415700837</v>
+        <v>0.04622548850730769</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1307228332497819</v>
+        <v>-0.1285367376516701</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1826382967032099</v>
+        <v>-0.1836016255462649</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1041486540392983</v>
+        <v>-0.1061936574840714</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.07843002121044391</v>
+        <v>-0.07994988274263061</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.137856885397966</v>
+        <v>-0.1301987666282701</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.01949264078742746</v>
+        <v>-0.0269090735762852</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1808492694213734</v>
+        <v>0.1826359835118099</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1389809893074273</v>
+        <v>0.1232441658494735</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.3053664223239437</v>
+        <v>0.3016634146494059</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.01876790986905851</v>
+        <v>0.01919006799137787</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.04094124826097914</v>
+        <v>-0.03335444183304022</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.03556060593902652</v>
+        <v>0.03464774591584824</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.05178249165466273</v>
+        <v>0.05139525540382659</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.006692756472263413</v>
+        <v>-0.01289262932254964</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.1029468734933958</v>
+        <v>0.1004872152014379</v>
       </c>
     </row>
     <row r="28">
